--- a/commission/Commission 11th Jun'24.xlsx
+++ b/commission/Commission 11th Jun'24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\commission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CD2A78-10E4-4FAC-805E-343769B63544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F892C598-150D-4196-ADC0-58A058163051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commission 8th &amp; 11th" sheetId="5" r:id="rId1"/>
@@ -220,27 +220,7 @@
     <cellStyle name="??&amp;O龡&amp;H?_x0008_??_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -845,7 +825,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" activeCellId="2" sqref="H2 I5 G8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,28 +1002,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
